--- a/fwb_page/data/hows_life_dictionary.xlsx
+++ b/fwb_page/data/hows_life_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kate/OneDrive/WISE/hsl_dashboard/dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\cwb_page\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F694A-C36A-7F48-AA9C-BF86013E9E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A6016-F75A-4372-AC54-F032DF3DB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="510">
   <si>
     <t>measure</t>
   </si>
@@ -67,9 +67,6 @@
     <t>1_2</t>
   </si>
   <si>
-    <t>S80/S20 income share ratio</t>
-  </si>
-  <si>
     <t>Ratio of average (equivalised) household disposable income of the top 20% of the income distribution to the average income of the bottom 20%</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>OECD wealth distribution database</t>
   </si>
   <si>
-    <t>Household wealth refers to the sum of non-financial (e.g. dwellings) and financial assets (e.g. deposits, shares and equity), net of their financial liabilities (e.g. loans), held by private households resident in the country, as measured in microdata (household surveys and, more rarely, administrative records). Household wealth is reported for the median household (rather than as the mean across all households) to reduce the impact of differences across countries in measuring the top end of the distribution (where most wealth is concentrated). Values are expressed in USD using purchasing power parities (PPPs) for household private consumption; when analysing changes over time, these values are adjusted for changes in the consumer price index (CPI). The concept of household wealth used corresponds to the one presented in the OECD Guidelines for Micro Statistics on Household Wealth and excludes private and occupational pensions, whose size and distribution differ markedly across countries depending on the characteristics of their social security systems. Data are shown per household (rather than per person or per adult), with no adjustment made to reflect differences in household size. They are drawn from the OECD Wealth Distribution Database, which includes estimates that are supplied by National Statistical Offices and other producers of official statistics, or that are produced by the OECD based on public use data from the Euro-System Household Finance and Consumption Survey (for 17 European countries except the Netherlands). Differences in the extent to which rich households are oversampled in different countries (ranging from no oversampling in Australia and Austria, to large oversampling for the United States and Spain) affect cross-country differences in average wealth per household (and their inequality). Vertical inequality in household wealth is measured by the percentage of household wealth held by the 10% of wealthiest households.</t>
-  </si>
-  <si>
     <t>1_3_VER</t>
   </si>
   <si>
@@ -109,18 +103,12 @@
     <t>Relative income poverty</t>
   </si>
   <si>
-    <t>Share of individuals with household disposable income below the relative income poverty line, set at 50% of the national median</t>
-  </si>
-  <si>
     <t>1_5</t>
   </si>
   <si>
     <t>Difficulty making ends meet</t>
   </si>
   <si>
-    <t>Share of individuals who declare to have difficulty or great difficulty to make ends meet</t>
-  </si>
-  <si>
     <t>EU-SILC</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>Financial insecurity</t>
   </si>
   <si>
-    <t>Share of individuals with equivalised liquid financial assets below 3 months of the annual national relative income poverty line</t>
-  </si>
-  <si>
     <t>Financial insecurity, a measure of wealth deprivation, refers to the percentage of people who are not currently income-poor, but who have liquid financial wealth below three months of the annual national relative income poverty line. Liquid financial wealth includes cash, quoted shares, mutual funds and bonds net of liabilities. These people are considered as “financially insecure” as, in the event of a shock, their liquid financial wealth would be insufficient to support them at the level of the income poverty line for more than three months. The indicator is compiled by the OECD following the OECD Guidelines for Micro Statistics on Household Wealth. The income concept used to compute this indicator follows as much as possible that used for reporting income poverty, i.e. household disposable income. However, for most countries, information on household disposable income is not available in the data sources used for the computation of wealth statistics; for this reason, the choice made here has been to rely on the concept of gross income (i.e. the total sum of wages and salaries, self-employment income, property income and current transfers received, all recorded before payment of taxes) when information on disposable income was not available. The poverty line is hence based on household disposable income for Australia, Canada, Chile, Denmark, Finland, Japan, Korea, Italy, the Netherlands, New Zealand, Norway, the United Kingdom and the United States, and on household gross income for the remaining countries.</t>
   </si>
   <si>
@@ -166,13 +151,7 @@
     <t>Feeling safe at night</t>
   </si>
   <si>
-    <t>Share of people declaring that they feel safe when walking alone at night in the city or area where they live</t>
-  </si>
-  <si>
     <t>Gallup World Poll</t>
-  </si>
-  <si>
-    <t>Feelings safe at night is measured by the percentage of people answering "yes" to a (yes/no) question: “Do you feel safe walking alone at night in the city or area where you live?”. The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: • for data by sex: 3-year pooled averages (from 2008 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, 2017-19) and 2-year pooled averages (from 2020 to 2023, resulting in 2 data points: 2020-21 and 2022-23); • for data by age and by education: 7-year average (from 2010 to 2023, resulting in 2 data points: 2010-16 and 2017-23). Deprivation in feeling safe at night refers to the percentage of people answering "no" to the (yes/no) question mentioned above.</t>
   </si>
   <si>
     <t>10_2_DEP</t>
@@ -206,9 +185,6 @@
 Integration Survey), Mexico (Mexican National Survey of Household Income and Expenditure (Socioeconomic Conditions Module)), New Zealand (New Zealand General Social Survey)</t>
   </si>
   <si>
-    <t>Life satisfaction is measured through survey questions concerning overall satisfaction with life. Averages refer to mean scores. Consistent with the OECD Guidelines on Measuring Subjective Well-being, the question format typically used in OECD countries is: “Overall, how satisfied are you with your life as a whole these days?”, with a response scale ranging from 0 to 10, anchored by 0 (“not at all satisfied”) and 10 (“completely satisfied”). Despite progress in harmonisation, there are minor differences in the question wording across OECD countries, such as the scale anchors used (e.g. “very dissatisfied” to “very satisfied” in Canada; “completely dissatisfied” and “completely satisfied” in New Zealand) as well as more substantial methodological differences (e.g. identification of the scale mid- point, 5, as “neutral” in Korea). Differences in the population sampled also limit comparability. In the majority of OECD countries, data refer to the population 16 years and older, with minor variations in Australia, Canada, Colombia and New Zealand (where data refer to those aged 15 and older), Mexico (those aged 18 and older) and Korea (those aged 19 and older from 2020. Until 2019, the age range was significantly narrow: 19-69 years). Deprivation refers to the percentage of the population reporting a life satisfaction of 4 or below. Vertical inequality refers to the ratio of life satisfaction scores of the top 20% (i.e. the quintile with the highest scores in life satisfaction) relative to the bottom 20% (i.e. the quintile with the lowest scores in life satisfaction).</t>
-  </si>
-  <si>
     <t>11_1_DEP</t>
   </si>
   <si>
@@ -221,22 +197,10 @@
     <t>Negative affect balance</t>
   </si>
   <si>
-    <t>Share of population reporting more negative than positive feelings and states in a typical day</t>
-  </si>
-  <si>
-    <t>Negative affect balance is measured through a battery of items, to which respondents indicate “yes” or “no” to having felt a lot of each emotion or state on the previous day. The negative items considered here relate to anger, sadness and worry, and the positive affect items to enjoyment, feeling well-rested and laughing or smiling. The indicator refers to the percentage of respondents who report more negative than positive feelings or states on the previous day. Data are sourced from the Gallup World Poll, which samples around 1 000 people per country, each year. The sample is ex ante designed to be nationally representative of the population aged 15 and over (including rural areas); the sample data are weighted to the population using weights supplied by Gallup. Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: • for data by sex: 3-year pooled averages (from 2008 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, 2017-19) and 2-year pooled averages (from 2020 to 2023, resulting in 2 data points: 2020-21 and 2022-23); • for data by age and by education: 7-year average (from 2010 to 2023, resulting in 2 data points: 2010-16 and 2017-23)</t>
-  </si>
-  <si>
     <t>11_3</t>
   </si>
   <si>
     <t>Feeling of physical pain</t>
-  </si>
-  <si>
-    <t>Share of population reporting feeling a lot of physical pain yesterday</t>
-  </si>
-  <si>
-    <t>The indicator refers to the percentage of people answering "yes" to a (yes/no) question: “Did you experience the following feelings during a lot of the day yesterday? How about physical pain?”. The source is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: • for data by sex: 3-year pooled averages (from 2008 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, 2017-19) and 2-year pooled averages (from 2020 to 2023, resulting in 2 data points: 2020-21 and 2022-23); • for data by age and by education: 7-year average (from 2010 to 2023, resulting in 2 data points: 2010-16 and 2017-23).</t>
   </si>
   <si>
     <t>12_1</t>
@@ -486,9 +450,6 @@
     <t>Upper secondary educational attainment among young adults</t>
   </si>
   <si>
-    <t>Share of people aged 25-34 who have attained at least an upper secondary education</t>
-  </si>
-  <si>
     <t>OECD Educational attainment and labour-force status database</t>
   </si>
   <si>
@@ -504,9 +465,6 @@
     <t>Broad labour underutilization rate</t>
   </si>
   <si>
-    <t>Share of unemployed, discouraged (persons not in the labour force who did not actively look for work during the past four weeks but who wish and are available to work) and underemployed (full-time workers working less than usual during the survey reference week for economic reasons and part-time workers who wanted but could not find full-time work) workers in the total labour force</t>
-  </si>
-  <si>
     <t>OECD Household Dashboard Database</t>
   </si>
   <si>
@@ -537,9 +495,6 @@
     <t>Smoking prevalence</t>
   </si>
   <si>
-    <t>Share of people aged 15 or over who report smoking every day</t>
-  </si>
-  <si>
     <t>OECD Health Statistics Database: “Non-medical determinants of health”</t>
   </si>
   <si>
@@ -552,9 +507,6 @@
     <t>Obesity prevalence</t>
   </si>
   <si>
-    <t>Share of the population aged 15 or older who are obese, either self-reported or measured through health interviews</t>
-  </si>
-  <si>
     <t>This indicator captures the percentage of the population aged 15 or older who are obese, either self- reported or measured through health interviews. Obesity is defined using the body mass index (BMI), a single number that takes into account an individual’s height and weight. Based on WHO standards, an adult with a BMI of 30 or above is considered obese. While BMI is the most commonly-used metric for defining obesity, it is not without limits (e.g. different ethnic groups may have equivalent levels of health risks at different BMI values).</t>
   </si>
   <si>
@@ -600,9 +552,6 @@
     <t>Proportion of the population responding “yes” to a question about confidence in the national government</t>
   </si>
   <si>
-    <t>Trust in government is based on the survey question: “In this country, do you have confidence in each of the following, or not? … How about national government?” The data shown reflect the percentage of respondents answering “yes” (the other response categories being “no”, and “don’t know”). Information is sourced via the annual Gallup World Poll, which samples around 1 000 people per country each year. The sample is ex ante designed to be nationally representative of the population aged 15 and over(including rural areas). Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: • for data by sex: 3-year pooled averages (from 2008 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, 2017-19) and 2-year pooled averages (from 2020 to 2023, resulting in 2 data points: 2020-21 and 2022-23); • for data by age and by education: 7-year average (from 2010 to 2023, resulting in 2 data points: 2010-16 and 2017-23).</t>
-  </si>
-  <si>
     <t>14_3_DEP</t>
   </si>
   <si>
@@ -628,9 +577,6 @@
   </si>
   <si>
     <t>Women in national parliament</t>
-  </si>
-  <si>
-    <t>Share of women in the national lower or single houses of parliament</t>
   </si>
   <si>
     <t>OECD International Development Statistics: 
@@ -664,15 +610,9 @@
     <t>Volunteering through organisations</t>
   </si>
   <si>
-    <t>Share of the working-age population who declared having volunteered through an organisation at least once a month over the preceding year</t>
-  </si>
-  <si>
     <t>OECD PIAAC</t>
   </si>
   <si>
-    <t>Volunteering through organisations refers to the percentage of the population answering "yes" to the (yes/no) question: “Have you done any of the following in the past month? How about volunteered your time at an organization?” The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: • for data by sex: 3-year pooled averages (from 2008 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, 2017-19) and 2-year pooled averages (from 2020 to 2023, resulting in 2 data points: 2020-21 and 2022-23); • for data by age and by education: 7-year average (from 2010 to 2023, resulting in 2 data points: 2010-16 and 2017-23). .</t>
-  </si>
-  <si>
     <t>14_7_DEP</t>
   </si>
   <si>
@@ -743,9 +683,6 @@
   </si>
   <si>
     <t>Household debt</t>
-  </si>
-  <si>
-    <t>Share of household net disposable income</t>
   </si>
   <si>
     <t>OECD Financial dashboard database</t>
@@ -815,9 +752,6 @@
     <t>Long-term unemployment rate</t>
   </si>
   <si>
-    <t>Share of the labour force unemployed for one year or more</t>
-  </si>
-  <si>
     <t>OECD Employment and
  Labour Market Statistics</t>
   </si>
@@ -831,9 +765,6 @@
     <t>NEET</t>
   </si>
   <si>
-    <t>Share of youth (aged 15-24) not in employment, education or training</t>
-  </si>
-  <si>
     <t>OECD Transition from 
 school to work (database),</t>
   </si>
@@ -847,9 +778,6 @@
     <t>Labour market insecurity</t>
   </si>
   <si>
-    <t>Average expected monetary loss associated with becoming and staying unemployed, as a share of previous earnings</t>
-  </si>
-  <si>
     <t>OECD Job quality database</t>
   </si>
   <si>
@@ -862,9 +790,6 @@
     <t>Job strain</t>
   </si>
   <si>
-    <t>Share of employees who experience a number of job demands that exceed that of job resources</t>
-  </si>
-  <si>
     <t>OECD Job quality (database),</t>
   </si>
   <si>
@@ -880,9 +805,6 @@
     <t>Employees working very long (paid) hours</t>
   </si>
   <si>
-    <t>Share of employees aged 15+ usually working 50+ hours per week</t>
-  </si>
-  <si>
     <t>Long hours in paid work refers to the percentage of employees (aged 15+) whose usual working hours are 50 hours or more per week. The threshold is set at 50 hours because, after commuting, unpaid work and basic needs (such as sleeping and eating) are taken into account, workers routinely working more than 50 hours per week are likely to be left with very few hours (one or two per day) for other activities. Moreover, in countries where there is a regulation on maximum working time, this is generally limited to 48 hours per week.</t>
   </si>
   <si>
@@ -901,9 +823,6 @@
     <t>OECD Average annual wages (database),</t>
   </si>
   <si>
-    <t>Wages refer to the average annual wages of employees working in all sectors of the economy and in all types of dependent employment, expressed on a full-time and full-year equivalent basis. The wages concept used, which is sourced from the National Accounts, includes employees’ gross remuneration (i.e. including employers’ social security contributions) before any deductions are made by the employer in respect of taxes, contributions to social security and pension schemes, life insurance premiums, union dues and other employee obligations. This value (“Wages and salaries”) is divided by the number of full-time equivalent employees in the economy (obtained by multiplying data on the number of employees by the ratio of hours worked by all employees and by those working full- time, in order to correct for the prevalence of part-time work). Real compensation per employee (instead of real wages) are considered for Iceland, Mexico and New Zealand. This indicator hence combines data from the National Accounts, Labour Force Surveys, establishment/employer surveys, household income surveys and administrative registers from tax files. Wages are expressed in US dollars (USD) using purchasing power parities (PPPs) for private consumption and are deflated using a price deflator for private final consumption expenditures in 2023 prices. Deprivation refers the percentage of full-time workers earning less than two-thirds of gross median earnings of all full-time workers (not only employees). Vertical inequality is measured by the gap between earnings of the top 10% (i.e. the decile with the highest earnings) relative to the bottom 10% (i.e. the decile with the lowest earnings) of full-time employees.</t>
-  </si>
-  <si>
     <t>2_8_DEP</t>
   </si>
   <si>
@@ -916,9 +835,6 @@
     <t>Job satisfaction</t>
   </si>
   <si>
-    <t>Job satisfaction is a measure of how individuals (aged 16/18, depending on the country) rate their satisfaction with their job on a 0-10 scale, from 0 (not at all satisfied) to 10 (completely satisfied). The average indicator refers to the mean values. Deprivation refers to the percentage of people reporting a score equal to or below 4. Vertical inequality for this indicator is measured by the ratio of job satisfaction of the top 20% (i.e. the quintile with the highest scores in job satisfaction) relative to the bottom 20% (i.e. the quintile with the lowest scores in job satisfaction).</t>
-  </si>
-  <si>
     <t>2_9_DEP</t>
   </si>
   <si>
@@ -931,9 +847,6 @@
     <t>Overcrowding rate</t>
   </si>
   <si>
-    <t>Share of households living in overcrowded conditions (EU- definition)</t>
-  </si>
-  <si>
     <t>OECD Affordable Housing Database</t>
   </si>
   <si>
@@ -949,9 +862,6 @@
     <t>Disposable income after housing costs</t>
   </si>
   <si>
-    <t>Share of household gross adjusted disposable income remaining, after deductions for housing rents and maintenance</t>
-  </si>
-  <si>
     <t>Housing affordability refers to the percentage of household gross adjusted disposable income that remains available to the household after deducting housing costs. Housing costs include rent (including imputed rentals for housing held by owner-occupiers) and maintenance (expenditure on the repair of the dwelling, including miscellaneous services, water supply, electricity, gas and other fuels, as well as expenditure on furniture, furnishings, household equipment and goods and services for routine home maintenance). Data are sourced from the OECD National Accounts database and refer to both households and non-profit institutions serving households. Countries currently using the COICOP 2018 version of annual household final consumption expenditure include Austria, Belgium, Bulgaria, Czech Republic, Denmark, Estonia, France, Germany, Hungary, Ireland, Italy, Korea, Latvia, Lithuania, Netherlands, Portugal, Slovenia, Spain and Sweden.</t>
   </si>
   <si>
@@ -961,33 +871,18 @@
     <t>Housing cost overburden</t>
   </si>
   <si>
-    <t>Share of households in the bottom 40% of the income distribution spending more than 40% of their disposable income on housing costs</t>
-  </si>
-  <si>
     <t>Housing cost overburden refers to the percentage of households in the bottom 40% of the income distribution devoting more than 40% of their disposable income to housing costs, where the latter 40% threshold is based on the methodology used by Eurostat for EU member countries. Housing costs include actual rents and mortgage costs (both principal repayment and mortgage interest); in contrast to the housing affordability measure sourced from National Accounts, no imputed rentals for owner-occupied homes are included. No data on mortgage principal repayments are available for Denmark. For Chile, Mexico, Korea and the United States, gross income instead of disposable income is used. Data are drawn from the OECD Affordable Housing Database, which is sourced from household survey data.</t>
   </si>
   <si>
     <t>3_4</t>
   </si>
   <si>
-    <t>Poor households without access to basic sanitary facilities</t>
-  </si>
-  <si>
-    <t>Share of households below 50% of median equivalised disposable household income without indoor flushing toilet for the sole use of their household</t>
-  </si>
-  <si>
-    <t>Broadband internet is defined as subscriptions with a download speed of at least 256 Kbit/s.</t>
-  </si>
-  <si>
     <t>3_5</t>
   </si>
   <si>
     <t>Households with high-speed internet access</t>
   </si>
   <si>
-    <t>Share of households with broadband internet access at home</t>
-  </si>
-  <si>
     <t>OECD ICT Access and Usage by Households and Individuals database</t>
   </si>
   <si>
@@ -1018,9 +913,6 @@
     <t>Long unpaid working hours</t>
   </si>
   <si>
-    <t>Share of the total working-age population who usually work more than 60 hours per week, of which at least 30 hours involve unpaid work</t>
-  </si>
-  <si>
     <t>Long unpaid working hours corresponds to the percentage of the working-age (15-64) population who usually work more than 60 hours in total (paid and unpaid work) per week, of which at least 30 hours is unpaid work. 60 hours per week is the equivalent of two full-time jobs when the lower bound definition of full-time employment is considered (30 hours per week). This indicator captures long unpaid working hours both for people whose primary activity is domestic production and for those who face a “double day” burden of both paid work and long unpaid working hours. Unpaid work includes routine housework, shopping for goods and services (mainly food, clothing and items related to accommodation), caring for household members (children and adults) and non-household members, volunteering, travel related to household activities and other unpaid work. Paid work, on the other hand, includes time spent in all jobs and all commuting time. Time spent commuting to and from the workplace and to and from school could not be separated out in a number of countries, and thus time spent commuting includes both work- and school- related commuting.</t>
   </si>
   <si>
@@ -1051,9 +943,6 @@
     <t>Mean average satisfaction with time use on an 11-point scale, with responses ranging from 0 (not at all satisfied) to 10 (completely satisfied)</t>
   </si>
   <si>
-    <t>Satisfaction with time use is a measure of how individuals (aged 16/18 + depending on the country) rate their satisfaction with time use on an 11-point scale, from 0 (not at all satisfied) to 10 (completely satisfied). The average indicator refers to the mean values. Respondents are asked to provide a broad, reflective appraisal of all areas of their time use. Deprivation refers to the percentage of people reporting a score equal to or below 4. Vertical inequality for this indicator is measured by the ratio of satisfaction with time use scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with time use) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with time use).</t>
-  </si>
-  <si>
     <t>4_4_DEP</t>
   </si>
   <si>
@@ -1084,12 +973,6 @@
     <t>Perceived health</t>
   </si>
   <si>
-    <t>Share of the population 16 years or over reporting “good” or “very good” health</t>
-  </si>
-  <si>
-    <t>Perceived health refers to people’s overall self-reported health status. Averages in perceived health refer to the percentage of adults reporting “good” or “very good” health. Data are based on general household surveys or on more detailed health interviews. The indicator is based on questions such as: “How is your health in general?”, with answers usually classified as “very good”, “good”, “not very good” and “poor” – although in some non-European countries (Australia, Canada, Chile, Israel, New Zealand, the United States) different response scales are used, which may lead to an upward bias in the estimates. In the OECD Health Status database, the response categories from different surveys are rescored to fit into three broad categories of “good/very good” (all positive response categories), “fair” (neither good nor bad), “bad/very bad” (all negative response categories). Respondents are generally 16 years or over, though the specific age range varies across countries. Data are based on general household surveys or on more detailed health interviews. Deprivation in perceived health is measured as the percentage of adults reporting “bad” or “very bad” health.</t>
-  </si>
-  <si>
     <t>5_2_DEP</t>
   </si>
   <si>
@@ -1111,9 +994,6 @@
     <t>Depressive symptoms</t>
   </si>
   <si>
-    <t>Share of the population 15 years and over reporting having experienced a range of depressive symptoms in the past two weeks</t>
-  </si>
-  <si>
     <t>European Health Interview Survey (EHIS)</t>
   </si>
   <si>
@@ -1123,9 +1003,6 @@
     <t>6_1</t>
   </si>
   <si>
-    <t>Student skills (reading)</t>
-  </si>
-  <si>
     <t>Cognitive skills of 15-year-old students in reading</t>
   </si>
   <si>
@@ -1135,9 +1012,6 @@
     <t>OECD PISA</t>
   </si>
   <si>
-    <t>Student cognitive skills are measured using the OECD Programme for International Student Assessment (PISA) test scores. PISA assessments are conducted once every three years, with the focal subject cycling between mathematics, reading and science. PISA assessments are normalised such that the OECD average is 500 points, with a standard deviation of 100 points. Normalisation is established in the first year a subject is a focal subject, implying that the value of the OECD average in any given year may not be equal to 500. Because PISA assessments are conducted within schools, they capture the cognitive ability only of 15-year-olds who are currently enrolled in school. These tests thus do not include dropouts, or home-schooled students. Deprivation refers to low achievers, which are those with cognitive skills below Level 2 in all three subjects. Vertical inequality is measured by the ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile), for each of the three PISA subject areas. The closer the ratio is to 1, the lower the gap between top and bottom students.</t>
-  </si>
-  <si>
     <t>6_1_DEP</t>
   </si>
   <si>
@@ -1165,9 +1039,6 @@
     <t>6_3</t>
   </si>
   <si>
-    <t>Student skills (science)</t>
-  </si>
-  <si>
     <t>Cognitive skills of 15-year-old students in science</t>
   </si>
   <si>
@@ -1186,15 +1057,9 @@
     <t>Adult skills (numeracy)</t>
   </si>
   <si>
-    <t>PIAAC mean scores in numeray</t>
-  </si>
-  <si>
     <t>PIAAC mean scores in numeracy</t>
   </si>
   <si>
-    <t>Adult cognitive skills are measured using the OECD Programme for the International Assessment of Adult Competencies (PIAAC) assessments in literacy and numeracy. The first cycle of PIAAC comprised three rounds, running from 2011 to 2017, covering over 220 000 adults in 38 countries. Adults are administered assessments of numeracy, literacy and problem-solving skills, with possible scores ranging from 0 to 500 (unlike PISA, PIAAC results are not normalised, meaning that the highest possible score is 500). Data for Belgium are limited to Flanders, and those for the United Kingdom to England and Northern Ireland. Deprivation for this indicator refer to the percentage of adults scoring at or below Level 1 in both literacy and numeracy assessment. Vertical inequality for this indicator is measured by the ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile), for each of the two PIAAC assessment areas. The closer the ratio is to 1, the lower the gap between top and bottom performers.</t>
-  </si>
-  <si>
     <t>6_4_DEP</t>
   </si>
   <si>
@@ -1222,12 +1087,6 @@
     <t>Perceived social support</t>
   </si>
   <si>
-    <t>Share of people who report having friends or relatives whom they can count on in times of trouble</t>
-  </si>
-  <si>
-    <t>Social support is measured by the percentage of people answering "yes" to a (yes/no) question: “If you were in trouble, do you have relatives or friends you can count on to help you whenever you need them, or not?”. The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: • for data by sex: 3-year pooled averages (from 2008 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, 2017-19) and 2-year pooled averages (from 2020 to 2023, resulting in 2 data points: 2020-21 and 2022-23); • for data by age and by education: 7-year average (from 2010 to 2023, resulting in 2 data points: 2010-16 and 2017-23). Deprivation in social support refer to the percentage of people answering "no" to the question mentioned above.</t>
-  </si>
-  <si>
     <t>7_1_DEP</t>
   </si>
   <si>
@@ -1255,9 +1114,6 @@
     <t>Mean average satisfaction with personal relationships on an 11-point scale, with responses ranging from 0 (not at all satisfied) to 10 (completely satisfied)</t>
   </si>
   <si>
-    <t>Satisfaction with personal relationships refers to the mean score of survey respondents who rate their satisfaction with their personal relationships on an 11-point scale, from 0 (not at all satisfied) to 10 (completely satisfied). The variable refers to the respondent’s opinion/feeling about the degree of satisfaction with his/her personal relationships. The respondent is expected to make a broad, reflective appraisal of all areas of his/her personal relationships (e.g. relatives, friends, colleagues from work etc.) in a particular point in time (these days). This indicator refers to individuals aged 16 or more, except for Canada (15 or more) and Mexico (18 or more). Deprivation for this indicator refer to the percentage of people answering 4 or below. Vertical inequality for this indicator is measured by the ratio of satisfaction with personal relationships scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with personal relationships) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with personal relationships).</t>
-  </si>
-  <si>
     <t>7_3_DEP</t>
   </si>
   <si>
@@ -1285,12 +1141,6 @@
     <t>Having a say in government</t>
   </si>
   <si>
-    <t>Share of people aged 16-65 who feel they have a say in what the government does</t>
-  </si>
-  <si>
-    <t>Having a say in what the government does is measured through a question in the OECD Survey on the Drivers of Trust in Public Institutions, also called OECD Trust Survey, which asks respondents to rate on a 0-10 point scale, where 0 stands for “not at all” and 10 for “a great deal”, what extent they agree with the statement, “How much would you say the political system in [COUNTRY] allows people like you to have a say in what the government does?”.. Having a say in government refers to the percentage of respondents who gave a score of at least 6. Deprivation refers to the percentage of respondents who gave a score of 4 or less.</t>
-  </si>
-  <si>
     <t>8_1_DEP</t>
   </si>
   <si>
@@ -1300,9 +1150,6 @@
     <t>Voter turnout</t>
   </si>
   <si>
-    <t>Share of votes cast among the population registered to vote</t>
-  </si>
-  <si>
     <t>IDEA, www.idea.int</t>
   </si>
   <si>
@@ -1313,9 +1160,6 @@
   </si>
   <si>
     <t>Access to green space</t>
-  </si>
-  <si>
-    <t>Share of urban population with access to green space within a 5 minutes’ walk (or 400 metres)</t>
   </si>
   <si>
     <t>“A walk to the park? Assessing access to green areas in Europe’s cities,
@@ -1334,9 +1178,6 @@
     <t>Population exposure to outdoor air pollution by fine particulate matter above World Health Organisation (WHO) Guidelines</t>
   </si>
   <si>
-    <t>Share of population exposed to more than 10 μg/m3 of PM2.5</t>
-  </si>
-  <si>
     <t>OECD Exposure to air pollution database</t>
   </si>
   <si>
@@ -1358,82 +1199,368 @@
     <t>Percentage of population exposed to hot days (maximum temperature &gt; 35°C) for at least two weeks a year. Exposure to extreme heat has documented impacts on health and other well-being outcomes, and is likely to increase in the face of climate change.</t>
   </si>
   <si>
-    <t>Feeling safe at night  (deprivation)</t>
-  </si>
-  <si>
-    <t>Life satisfaction  (deprivation)</t>
-  </si>
-  <si>
-    <t>Trust in national government  (deprivation)</t>
-  </si>
-  <si>
-    <t>Volunteering through organisations  (deprivation)</t>
-  </si>
-  <si>
-    <t>Average annual gross earnings per full-time employee  (deprivation)</t>
-  </si>
-  <si>
-    <t>Job satisfaction  (deprivation)</t>
-  </si>
-  <si>
-    <t>Satisfaction with time use  (deprivation)</t>
-  </si>
-  <si>
-    <t>Perceived health  (deprivation)</t>
-  </si>
-  <si>
-    <t>Cognitive skills of 15-year-old students in reading  (deprivation)</t>
-  </si>
-  <si>
-    <t>Cognitive skills of 15-year-old students in maths  (deprivation)</t>
-  </si>
-  <si>
-    <t>Cognitive skills of 15-year-old students in science  (deprivation)</t>
-  </si>
-  <si>
-    <t>PIAAC mean scores in numeray  (deprivation)</t>
-  </si>
-  <si>
-    <t>Perceived social support  (deprivation)</t>
-  </si>
-  <si>
-    <t>Satisfaction with personal relationships  (deprivation)</t>
-  </si>
-  <si>
-    <t>Having a say in government  (deprivation)</t>
-  </si>
-  <si>
-    <t>Household median net wealth  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Life satisfaction  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Average annual gross earnings per full-time employee  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Job satisfaction  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Satisfaction with time use  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Cognitive skills of 15-year-old students in reading  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Cognitive skills of 15-year-old students in maths  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Cognitive skills of 15-year-old students in science  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>PIAAC mean scores in numeray  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>PIAAC mean scores in literacy  (vertical inequality)</t>
-  </si>
-  <si>
-    <t>Satisfaction with personal relationships  (vertical inequality)</t>
+    <t>S80/S20 income Percentage ratio</t>
+  </si>
+  <si>
+    <t>Household net wealth inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality in household wealth</t>
+  </si>
+  <si>
+    <t>Percentage of household wealth held by the 10% of wealthiest households</t>
+  </si>
+  <si>
+    <t>Percentage of individuals with household disposable income below the relative income poverty line, set at 50% of the national median</t>
+  </si>
+  <si>
+    <t>Percentage of individuals who declare to have difficulty or great difficulty to make ends meet</t>
+  </si>
+  <si>
+    <t>Percentage of individuals with equivalised liquid financial assets below 3 months of the annual national relative income poverty line</t>
+  </si>
+  <si>
+    <t>Percentage of people declaring that they feel safe when walking alone at night in the city or area where they live</t>
+  </si>
+  <si>
+    <t>Feeling unsafe at night</t>
+  </si>
+  <si>
+    <t>Percentage of people declaring that they do not feel safe when walking alone at night in the city or area where they live</t>
+  </si>
+  <si>
+    <t>Life satisfaction is measured through survey questions concerning overall satisfaction with life. Averages refer to mean scores. Consistent with the OECD Guidelines on Measuring Subjective Well-being, the question format typically used in OECD countries is: “Overall, how satisfied are you with your life as a whole these days?”, with a response scale ranging from 0 to 10, anchored by 0 (“not at all satisfied”) and 10 (“completely satisfied”). Despite progress in harmonisation, there are minor differences in the question wording across OECD countries, such as the scale anchors used (e.g. “very dissatisfied” to “very satisfied” in Canada; “completely dissatisfied” and “completely satisfied” in New Zealand) as well as more substantial methodological differences (e.g. identification of the scale mid- point, 5, as “neutral” in Korea). Differences in the population sampled also limit comparability. In the majority of OECD countries, data refer to the population 16 years and older, with minor variations in Australia, Canada, Colombia and New Zealand (where data refer to those aged 15 and older), Mexico (those aged 18 and older) and Korea (those aged 19 and older from 2020. Until 2019, the age range was significantly narrow: 19-69 years). &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; refers to the percentage of the population reporting a life satisfaction of 4 or below. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; refers to the ratio of life satisfaction scores of the top 20% (i.e. the quintile with the highest scores in life satisfaction) relative to the bottom 20% (i.e. the quintile with the lowest scores in life satisfaction).</t>
+  </si>
+  <si>
+    <t>Dissatisfaction with life</t>
+  </si>
+  <si>
+    <t>Percentage of the population reporting a life satisfaction of 4 or below</t>
+  </si>
+  <si>
+    <t>Life satisfaction inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality in life satisfaction</t>
+  </si>
+  <si>
+    <t>Ratio of life satisfaction scores of the top 20% (i.e. the quintile with the highest scores in life satisfaction) relative to the bottom 20% (i.e. the quintile with the lowest scores in life satisfaction)</t>
+  </si>
+  <si>
+    <t>Percentage of population reporting more negative than positive feelings and states in a typical day</t>
+  </si>
+  <si>
+    <t>Percentage of population reporting feeling a lot of physical pain yesterday</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 25-34 who have attained at least an upper secondary education</t>
+  </si>
+  <si>
+    <t>Percentage of unemployed, discouraged (persons not in the labour force who did not actively look for work during the past four weeks but who wish and are available to work) and underemployed (full-time workers working less than usual during the survey reference week for economic reasons and part-time workers who wanted but could not find full-time work) workers in the total labour force</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 15 or over who report smoking every day</t>
+  </si>
+  <si>
+    <t>Percentage of the population aged 15 or older who are obese, either self-reported or measured through health interviews</t>
+  </si>
+  <si>
+    <t>Trust in government is based on the survey question: “In this country, do you have confidence in each of the following, or not? … How about national government?” The data shown reflect the percentage of respondents answering “yes” (the other response categories being “no”, and “don’t know”). Information is sourced via the annual Gallup World Poll, which samples around 1 000 people per country each year. The sample is ex ante designed to be nationally representative of the population aged 15 and over(including rural areas).&lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>No trust in the government</t>
+  </si>
+  <si>
+    <t>Lack of trust in national government</t>
+  </si>
+  <si>
+    <t>Proportion of the population responding “no” to a question about confidence in the national government</t>
+  </si>
+  <si>
+    <t>Percentage of women in the national lower or single houses of parliament</t>
+  </si>
+  <si>
+    <t>Volunteering</t>
+  </si>
+  <si>
+    <t>Percentage of the working-age population who declared having volunteered through an organisation at least once a month over the preceding year</t>
+  </si>
+  <si>
+    <t>Volunteering through organisations refers to the percentage of the population answering "yes" to the (yes/no) question: “Have you done any of the following in the past month? How about volunteered your time at an organization?” The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas).&lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>No volunteering</t>
+  </si>
+  <si>
+    <t>No volunteering through organisations</t>
+  </si>
+  <si>
+    <t>Percentage of the working-age population who declared they have not volunteered through an organisation at least once a month over the preceding year</t>
+  </si>
+  <si>
+    <t>Percentage of household net disposable income</t>
+  </si>
+  <si>
+    <t>Percentage of the labour force unemployed for one year or more</t>
+  </si>
+  <si>
+    <t>Not in education, employment or training</t>
+  </si>
+  <si>
+    <t>Percentage of youth (aged 15-24) not in employment, education or training</t>
+  </si>
+  <si>
+    <t>Average expected monetary loss associated with becoming and staying unemployed, as a percentage of previous earnings</t>
+  </si>
+  <si>
+    <t>Percentage of employees who experience a number of job demands that exceed that of job resources</t>
+  </si>
+  <si>
+    <t>Percentage of employees aged 15+ usually working 50+ hours per week</t>
+  </si>
+  <si>
+    <t>Percentage of full-time workers earning less than two-thirds of gross median earnings of all full-time workers (not only employees)</t>
+  </si>
+  <si>
+    <t>Wage inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality in average annual gross earnings per full-time employee</t>
+  </si>
+  <si>
+    <t>Gap between earnings of the top 10% (i.e. the decile with the highest earnings) relative to the bottom 10% (i.e. the decile with the lowest earnings) of full-time employees</t>
+  </si>
+  <si>
+    <t>Dissatisfaction with job</t>
+  </si>
+  <si>
+    <t>Percentage of people reporting a score equal to or below 4</t>
+  </si>
+  <si>
+    <t>Job satisfaction inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality with job satisfaction</t>
+  </si>
+  <si>
+    <t>Ratio of job satisfaction of the top 20% (i.e. the quintile with the highest scores in job satisfaction) relative to the bottom 20% (i.e. the quintile with the lowest scores in job satisfaction)</t>
+  </si>
+  <si>
+    <t>Percentage of households living in overcrowded conditions (EU- definition)</t>
+  </si>
+  <si>
+    <t>Percentage of household gross adjusted disposable income remaining, after deductions for housing rents and maintenance</t>
+  </si>
+  <si>
+    <t>Percentage of households in the bottom 40% of the income distribution spending more than 40% of their disposable income on housing costs</t>
+  </si>
+  <si>
+    <t>Percentage of households with broadband internet access at home</t>
+  </si>
+  <si>
+    <t>Percentage of the total working-age population who usually work more than 60 hours per week, of which at least 30 hours involve unpaid work</t>
+  </si>
+  <si>
+    <t>Dissatisfaction with time use</t>
+  </si>
+  <si>
+    <t>Time use inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality with time use</t>
+  </si>
+  <si>
+    <t>Ratio of satisfaction with time use scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with time use) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with time use)</t>
+  </si>
+  <si>
+    <t>Good perceived health</t>
+  </si>
+  <si>
+    <t>Percentage of the population 16 years or over reporting “good” or “very good” health</t>
+  </si>
+  <si>
+    <t>Poor perceived health</t>
+  </si>
+  <si>
+    <t>Percentage of adults reporting “bad” or “very bad” health</t>
+  </si>
+  <si>
+    <t>Percentage of the population 15 years and over reporting having experienced a range of depressive symptoms in the past two weeks</t>
+  </si>
+  <si>
+    <t>Student reading skills</t>
+  </si>
+  <si>
+    <t>Students with low skills</t>
+  </si>
+  <si>
+    <t>Percentage of students with cognitive skills below Level 2 in all three PISA subjects: reading, mathematics and science</t>
+  </si>
+  <si>
+    <t>Percentage of students with cognitive skills below Level 2 in all three subjects</t>
+  </si>
+  <si>
+    <t>Student reading skills inequality</t>
+  </si>
+  <si>
+    <t>Ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile) in reading</t>
+  </si>
+  <si>
+    <t>Student maths skills inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality in cognitive skills of 15-year-old students in maths</t>
+  </si>
+  <si>
+    <t>Ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile) in maths</t>
+  </si>
+  <si>
+    <t>Student science skills</t>
+  </si>
+  <si>
+    <t>Student science skills inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality in cognitive skills of 15-year-old students in science</t>
+  </si>
+  <si>
+    <t>Ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile) in science</t>
+  </si>
+  <si>
+    <t>Adult numeracy skills</t>
+  </si>
+  <si>
+    <t>Adults with low skills</t>
+  </si>
+  <si>
+    <t>Adults with low skills in numeracy and literacy</t>
+  </si>
+  <si>
+    <t>Percentage of adults scoring at or below Level 1 in both literacy and numeracy assessment</t>
+  </si>
+  <si>
+    <t>Vertical inequality in PIAAC mean scores in numeracy</t>
+  </si>
+  <si>
+    <t>Ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile) in numeracy</t>
+  </si>
+  <si>
+    <t>Vertical inequality in PIAAC mean scores in literacy</t>
+  </si>
+  <si>
+    <t>Ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile) in literacy</t>
+  </si>
+  <si>
+    <t>Percentage of people who report having friends or relatives whom they can count on in times of trouble</t>
+  </si>
+  <si>
+    <t>No social support</t>
+  </si>
+  <si>
+    <t>Low perceived social support</t>
+  </si>
+  <si>
+    <t>Percentage of people who report not having friends or relatives whom they can count on in times of trouble</t>
+  </si>
+  <si>
+    <t>Dissatisfaction with personal relationships</t>
+  </si>
+  <si>
+    <t>Percentage of people answering 4 or below</t>
+  </si>
+  <si>
+    <t>Personal relationships inequality</t>
+  </si>
+  <si>
+    <t>Vertical inequality with satisfaction with personal relationships</t>
+  </si>
+  <si>
+    <t>Ratio of satisfaction with personal relationships scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with personal relationships) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with personal relationships)</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 16-65 who feel they have a say in what the government does</t>
+  </si>
+  <si>
+    <t>Not having a say in government</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 16-65 who feel they do not have a say in what the government does</t>
+  </si>
+  <si>
+    <t>Percentage of votes cast among the population registered to vote</t>
+  </si>
+  <si>
+    <t>Percentage of urban population with access to green space within a 5 minutes’ walk (or 400 metres)</t>
+  </si>
+  <si>
+    <t>Percentage of population exposed to more than 10 μg/m3 of PM2.5</t>
+  </si>
+  <si>
+    <t>The indicator refers to the percentage of people answering "yes" to a (yes/no) question: “Did you experience the following feelings during a lot of the day yesterday? How about physical pain?”. The source is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). &lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Trust in government is based on the survey question: “In this country, do you have confidence in each of the following, or not? … How about national government?” The data shown reflect the percentage of respondents answering “yes” (the other response categories being “no”, and “don’t know”). Information is sourced via the annual Gallup World Poll, which samples around 1 000 people per country each year. The sample is ex ante designed to be nationally representative of the population aged 15 and over(including rural areas). &lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Volunteering through organisations refers to the percentage of the population answering "yes" to the (yes/no) question: “Have you done any of the following in the past month? How about volunteered your time at an organization?” The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). &lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Negative affect balance is measured through a battery of items, to which respondents indicate “yes” or “no” to having felt a lot of each emotion or state on the previous day. The negative items considered here relate to anger, sadness and worry, and the positive affect items to enjoyment, feeling well-rested and laughing or smiling. The indicator refers to the percentage of respondents who report more negative than positive feelings or states on the previous day. Data are sourced from the Gallup World Poll, which samples around 1 000 people per country, each year. The sample is ex ante designed to be nationally representative of the population aged 15 and over (including rural areas); the sample data are weighted to the population using weights supplied by Gallup. &lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in four data points: 2008-10, 2011-13, 2014-16, and 2017-19) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in three data points: 2006-07, 2020-21 and 2022-23);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2006 to 2023, resulting in two data points: 2010-16 and 2017-23) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2006 to 2023, resulting in three data points: 2009-13, 2014-18 and 2019-23) and a 3-year pooled average for 2006-08.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Inability to keep home adequately warm</t>
+  </si>
+  <si>
+    <t>Percentage of households reporting they cannot afford to keep their dwelling adequately warm</t>
+  </si>
+  <si>
+    <t>Inability to keep home adequately warm (energy poverty) refers to the percentage of households reporting they cannot afford to keep their dwelling adequately warm. The indicator depicts an outcome of being in energy poverty, but it does not provide information about the reasons behind the inability to keep the home adequately warm, which could be economic (price of energy, lack of resources, etc.), related to the characteristics of the building (energy efficiency of the home, lack of equipment) or others. The social and cultural characteristics of households strongly influence the declaration of an inability to heat one's home adequately, and the level of adequate temperature
+can vary from country to country. Finally, energy-poor people might deny seeing themselves as being in an uncomfortable situation and, therefore, do not declare it (also called the "denial of reality bias"). The question is asked to the household reference person, and the information is available at household level only. Data come from estimates provided by National Statistical Offices through the European Union Statistics on Income and Living Conditions, a nationally representative survey with large samples (from around 4 000 individuals in the smallest member states, to around 16 000 in the largest) covering all members of private households aged 16 or older and available for EU countries, as well as Norway and Switzerland.</t>
+  </si>
+  <si>
+    <t>Perceived health refers to people’s overall self-reported health status. Averages in perceived health refer to the percentage of adults reporting “good” or “very good” health. Data are based on general household surveys or on more detailed health interviews. The indicator is based on questions such as: “How is your health in general?”, with answers usually classified as “very good”, “good”, “not very good” and “poor” – although in some non-European countries (Australia, Canada, Chile, Israel, New Zealand, the United States) different response scales are used, which may lead to an upward bias in the estimates. In the OECD Health Status database, the response categories from different surveys are rescored to fit into three broad categories of “good/very good” (all positive response categories), “fair” (neither good nor bad), “bad/very bad” (all negative response categories). Respondents are generally 16 years or over, though the specific age range varies across countries. Data are based on general household surveys or on more detailed health interviews. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; in perceived health is measured as the percentage of adults reporting “bad” or “very bad” health.</t>
+  </si>
+  <si>
+    <t>Social support is measured by the percentage of people answering "yes" to a (yes/no) question: “If you were in trouble, do you have relatives or friends you can count on to help you whenever you need them, or not?”. The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas).&lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt; &lt;b&gt;Deprivation&lt;/b&gt; in social support refer to the percentage of people answering "no" to the question mentioned above.</t>
+  </si>
+  <si>
+    <t>Feelings safe at night is measured by the percentage of people answering "yes" to a (yes/no) question: “Do you feel safe walking alone at night in the city or area where you live?”. The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). &lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt; &lt;b&gt;Deprivation&lt;/b&gt; in feeling safe at night refers to the percentage of people answering "no" to the (yes/no) question mentioned above.</t>
+  </si>
+  <si>
+    <t>Wage &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; in average annual gross earnings per full-time employee</t>
+  </si>
+  <si>
+    <t>Social support is measured by the percentage of people answering "yes" to a (yes/no) question: “If you were in trouble, do you have relatives or friends you can count on to help you whenever you need them, or not?”. The source for these data is the Gallup World Poll, which samples around 1 000 people per country, per year. The sample is ex ante designed to be nationally representative of the population aged 15 or over (including rural areas). &lt;br&gt;&lt;br&gt;Due to the small sample size, data for the horizontal inequalities (differences between population groups) are pooled averages as follows: &lt;ul&gt;&lt;li&gt; for the country average and data by sex: 3-year pooled averages (from 2006 to 2019, resulting in five data points: 2008-10, 2011-13, 2014-16, 2017-19, 2020-22) and 2-year pooled averages (from 2006 to 2007 and 2023 to 2024, resulting in two data points: 2006-07 and 2023-24);&lt;/li&gt;&lt;li&gt;for data by age: 7-year average (from 2011 to 2024, resulting in two data points: 2011-17 and 2018-24) and a 5-year pooled average for 2006-10.&lt;/li&gt;&lt;li&gt;for data by education attainment: 5-year pooled averages (from 2010 to 2023, resulting in three data points: 2010-14, 2015-19 and 2020-24) and a 4-year pooled average for 2006-09.&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Deprivation&lt;/b&gt; in social support refer to the percentage of people answering "no" to the question mentioned above.</t>
+  </si>
+  <si>
+    <t>Having a say in what the government does is measured through a question in the OECD Survey on the Drivers of Trust in Public Institutions, also called OECD Trust Survey, which asks respondents to rate on a 0-10 point scale, where 0 stands for “not at all” and 10 for “a great deal”, what extent they agree with the statement, “How much would you say the political system in [COUNTRY] allows people like you to have a say in what the government does?”. Having a say in government refers to the percentage of respondents who gave a score of at least 6. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; refers to the percentage of respondents who gave a score of 4 or less.</t>
+  </si>
+  <si>
+    <t>Household wealth refers to the sum of non-financial (e.g. dwellings) and financial assets (e.g. deposits, shares and equity), net of their financial liabilities (e.g. loans), held by private households resident in the country, as measured in microdata (household surveys and, more rarely, administrative records). Household wealth is reported for the median household (rather than as the mean across all households) to reduce the impact of differences across countries in measuring the top end of the distribution (where most wealth is concentrated). Values are expressed in USD using purchasing power parities (PPPs) for household private consumption; when analysing changes over time, these values are adjusted for changes in the consumer price index (CPI). The concept of household wealth used corresponds to the one presented in the OECD Guidelines for Micro Statistics on Household Wealth and excludes private and occupational pensions, whose size and distribution differ markedly across countries depending on the characteristics of their social security systems. Data are shown per household (rather than per person or per adult), with no adjustment made to reflect differences in household size. They are drawn from the OECD Wealth Distribution Database, which includes estimates that are supplied by National Statistical Offices and other producers of official statistics, or that are produced by the OECD based on public use data from the Euro-System Household Finance and Consumption Survey (for 17 European countries except the Netherlands). Differences in the extent to which rich households are oversampled in different countries (ranging from no oversampling in Australia and Austria, to large oversampling for the United States and Spain) affect cross-country differences in average wealth per household (and their inequality). &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; in household wealth is measured by the percentage of household wealth held by the 10% of wealthiest households.</t>
+  </si>
+  <si>
+    <t>Wages refer to the average annual wages of employees working in all sectors of the economy and in all types of dependent employment, expressed on a full-time and full-year equivalent basis. The wages concept used, which is sourced from the National Accounts, includes employees’ gross remuneration (i.e. including employers’ social security contributions) before any deductions are made by the employer in respect of taxes, contributions to social security and pension schemes, life insurance premiums, union dues and other employee obligations. This value (“Wages and salaries”) is divided by the number of full-time equivalent employees in the economy (obtained by multiplying data on the number of employees by the ratio of hours worked by all employees and by those working full- time, in order to correct for the prevalence of part-time work). Real compensation per employee (instead of real wages) are considered for Iceland, Mexico and New Zealand. This indicator hence combines data from the National Accounts, Labour Force Surveys, establishment/employer surveys, household income surveys and administrative registers from tax files. Wages are expressed in US dollars (USD) using purchasing power parities (PPPs) for private consumption and are deflated using a price deflator for private final consumption expenditures in 2023 prices. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; refers the percentage of full-time workers earning less than two-thirds of gross median earnings of all full-time workers (not only employees). &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; is measured by the gap between earnings of the top 10% (i.e. the decile with the highest earnings) relative to the bottom 10% (i.e. the decile with the lowest earnings) of full-time employees.</t>
+  </si>
+  <si>
+    <t>Job satisfaction is a measure of how individuals (aged 16/18, depending on the country) rate their satisfaction with their job on a 0-10 scale, from 0 (not at all satisfied) to 10 (completely satisfied). The average indicator refers to the mean values. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; refers to the percentage of people reporting a score equal to or below 4. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; for this indicator is measured by the ratio of job satisfaction of the top 20% (i.e. the quintile with the highest scores in job satisfaction) relative to the bottom 20% (i.e. the quintile with the lowest scores in job satisfaction).</t>
+  </si>
+  <si>
+    <t>Satisfaction with time use is a measure of how individuals (aged 16/18 + depending on the country) rate their satisfaction with time use on an 11-point scale, from 0 (not at all satisfied) to 10 (completely satisfied). The average indicator refers to the mean values. Respondents are asked to provide a broad, reflective appraisal of all areas of their time use. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; refers to the percentage of people reporting a score equal to or below 4. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; for this indicator is measured by the ratio of satisfaction with time use scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with time use) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with time use).</t>
+  </si>
+  <si>
+    <t>Student cognitive skills are measured using the OECD Programme for International Student Assessment (PISA) test scores. PISA assessments are conducted once every three years, with the focal subject cycling between mathematics, reading and science. PISA assessments are normalised such that the OECD average is 500 points, with a standard deviation of 100 points. Normalisation is established in the first year a subject is a focal subject, implying that the value of the OECD average in any given year may not be equal to 500. Because PISA assessments are conducted within schools, they capture the cognitive ability only of 15-year-olds who are currently enrolled in school. These tests thus do not include dropouts, or home-schooled students. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; refers to low achievers, which are those with cognitive skills below Level 2 in all three subjects. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; is measured by the ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile), for each of the three PISA subject areas. The closer the ratio is to 1, the lower the gap between top and bottom students.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; in cognitive skills of 15-year-old students in reading</t>
+  </si>
+  <si>
+    <t>Adult cognitive skills are measured using the OECD Programme for the International Assessment of Adult Competencies (PIAAC) assessments in literacy and numeracy. The first cycle of PIAAC comprised three rounds, running from 2011 to 2017, covering over 220 000 adults in 38 countries. Adults are administered assessments of numeracy, literacy and problem-solving skills, with possible scores ranging from 0 to 500 (unlike PISA, PIAAC results are not normalised, meaning that the highest possible score is 500). Data for Belgium are limited to Flanders, and those for the United Kingdom to England and Northern Ireland. &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; for this indicator refer to the percentage of adults scoring at or below Level 1 in both literacy and numeracy assessment. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; for this indicator is measured by the ratio of cognitive skills among top performers (those above the 90th percentile) to bottom performers (those below the 10th percentile), for each of the two PIAAC assessment areas. The closer the ratio is to 1, the lower the gap between top and bottom performers.</t>
+  </si>
+  <si>
+    <t>Satisfaction with personal relationships refers to the mean score of survey respondents who rate their satisfaction with their personal relationships on an 11-point scale, from 0 (not at all satisfied) to 10 (completely satisfied). The variable refers to the respondent’s opinion/feeling about the degree of satisfaction with his/her personal relationships. The respondent is expected to make a broad, reflective appraisal of all areas of his/her personal relationships (e.g. relatives, friends, colleagues from work etc.) in a particular point in time (these days). This indicator refers to individuals aged 16 or more, except for Canada (15 or more) and Mexico (18 or more). &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; for this indicator refer to the percentage of people answering 4 or below. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; for this indicator is measured by the ratio of satisfaction with personal relationships scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with personal relationships) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with personal relationships).</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1596,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1769,13 +1902,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="102.54296875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1927,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1801,2107 +1937,2113 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F13" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="290" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E20" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B21" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>97</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>103</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
         <v>105</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E28" t="s">
         <v>115</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>117</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>122</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B30" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E30" t="s">
         <v>125</v>
       </c>
-      <c r="C28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B31" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E31" t="s">
         <v>131</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E32" t="s">
         <v>136</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E33" t="s">
         <v>141</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>143</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B34" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E34" t="s">
         <v>146</v>
       </c>
-      <c r="C32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>148</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E35" t="s">
         <v>152</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>154</v>
       </c>
-      <c r="F33" t="s">
+      <c r="B36" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" t="s">
         <v>156</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>158</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E38" t="s">
         <v>165</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>171</v>
       </c>
-      <c r="F36" t="s">
+      <c r="B40" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C37" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>175</v>
       </c>
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="B41" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E42" t="s">
         <v>179</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>181</v>
       </c>
-      <c r="F38" t="s">
+      <c r="B43" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D43" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E43" t="s">
         <v>184</v>
       </c>
-      <c r="C39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F43" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C44" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E44" t="s">
         <v>190</v>
       </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="F44" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="45" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>192</v>
       </c>
-      <c r="B41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" t="s">
-        <v>444</v>
-      </c>
-      <c r="D41" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B45" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D45" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E45" t="s">
         <v>194</v>
       </c>
-      <c r="C42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F45" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>195</v>
       </c>
-      <c r="E42" t="s">
+      <c r="B46" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>196</v>
       </c>
-      <c r="F42" t="s">
+      <c r="B47" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
         <v>198</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>200</v>
       </c>
-      <c r="D43" t="s">
+      <c r="B48" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B49" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="50" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>207</v>
       </c>
-      <c r="E44" t="s">
+      <c r="B50" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F44" t="s">
+      <c r="C50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>211</v>
       </c>
-      <c r="C45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F45" t="s">
+      <c r="D51" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="E51" t="s">
         <v>215</v>
       </c>
-      <c r="B46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" t="s">
-        <v>445</v>
-      </c>
-      <c r="D46" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="F51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>217</v>
       </c>
-      <c r="C47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B52" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F47" t="s">
+      <c r="C52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E52" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="F52" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>221</v>
       </c>
-      <c r="C48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="B53" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>225</v>
       </c>
-      <c r="E49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="B54" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C50" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>229</v>
       </c>
-      <c r="E50" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="B55" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E55" t="s">
         <v>232</v>
       </c>
-      <c r="C51" t="s">
+      <c r="F55" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>234</v>
       </c>
-      <c r="E51" t="s">
+      <c r="B56" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F51" t="s">
+      <c r="C56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="E56" t="s">
         <v>237</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F56" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C52" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>239</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B57" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F52" t="s">
+      <c r="C57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E57" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="F57" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="58" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>243</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B58" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D53" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="C58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E58" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="F58" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>247</v>
       </c>
-      <c r="C54" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B59" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E54" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="C59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E59" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="F59" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>251</v>
       </c>
-      <c r="C55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B60" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E60" t="s">
         <v>253</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F60" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="61" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>255</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B61" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C61" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D61" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E61" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B62" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C62" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C57" t="s">
-        <v>261</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="D62" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E62" t="s">
         <v>263</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F62" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B63" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>265</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>266</v>
       </c>
-      <c r="C58" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B65" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>268</v>
       </c>
-      <c r="F58" t="s">
+      <c r="B66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B67" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>270</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B68" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C68" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D68" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E68" t="s">
         <v>272</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F59" t="s">
+    </row>
+    <row r="69" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B69" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C69" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C60" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" t="s">
-        <v>278</v>
-      </c>
-      <c r="F60" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61" t="s">
-        <v>253</v>
-      </c>
-      <c r="F61" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>285</v>
-      </c>
-      <c r="B62" t="s">
-        <v>286</v>
-      </c>
-      <c r="C62" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" t="s">
-        <v>289</v>
-      </c>
-      <c r="F62" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>291</v>
-      </c>
-      <c r="B63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C63" t="s">
-        <v>446</v>
-      </c>
-      <c r="D63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F63" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>292</v>
-      </c>
-      <c r="B64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C64" t="s">
-        <v>459</v>
-      </c>
-      <c r="D64" t="s">
-        <v>288</v>
-      </c>
-      <c r="F64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>293</v>
-      </c>
-      <c r="B65" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" t="s">
-        <v>294</v>
-      </c>
-      <c r="D65" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>296</v>
-      </c>
-      <c r="B66" t="s">
-        <v>294</v>
-      </c>
-      <c r="C66" t="s">
-        <v>447</v>
-      </c>
-      <c r="D66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>297</v>
-      </c>
-      <c r="B67" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" t="s">
-        <v>460</v>
-      </c>
-      <c r="D67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>298</v>
-      </c>
-      <c r="B68" t="s">
-        <v>299</v>
-      </c>
-      <c r="C68" t="s">
-        <v>299</v>
-      </c>
-      <c r="D68" t="s">
-        <v>300</v>
-      </c>
-      <c r="E68" t="s">
-        <v>301</v>
-      </c>
-      <c r="F68" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>303</v>
-      </c>
-      <c r="B69" t="s">
-        <v>304</v>
-      </c>
-      <c r="C69" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" t="s">
-        <v>306</v>
+      <c r="D69" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E70" t="s">
+        <v>272</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E71" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E74" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="C79" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C70" t="s">
-        <v>309</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E79" t="s">
         <v>310</v>
       </c>
-      <c r="E70" t="s">
-        <v>301</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="F79" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="80" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>312</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B80" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C71" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C80" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>314</v>
       </c>
-      <c r="E71" t="s">
-        <v>301</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="B81" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B82" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C82" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C72" t="s">
-        <v>317</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E72" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>319</v>
       </c>
-      <c r="F72" t="s">
+      <c r="B83" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C83" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E83" t="s">
         <v>321</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F83" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>323</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B84" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D84" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E84" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="F84" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>327</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B85" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>328</v>
       </c>
-      <c r="C74" t="s">
-        <v>328</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B86" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>329</v>
       </c>
-      <c r="E74" t="s">
-        <v>325</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="B87" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C87" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D87" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E87" t="s">
+        <v>326</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>333</v>
       </c>
-      <c r="D75" t="s">
+      <c r="B88" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>334</v>
       </c>
-      <c r="E75" t="s">
+      <c r="B89" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>335</v>
       </c>
-      <c r="F75" t="s">
+      <c r="B90" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="D90" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B76" t="s">
+      <c r="E90" t="s">
+        <v>326</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>338</v>
       </c>
-      <c r="C76" t="s">
-        <v>338</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="B91" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>339</v>
       </c>
-      <c r="E76" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="B92" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B93" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E93" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B77" t="s">
-        <v>338</v>
-      </c>
-      <c r="C77" t="s">
-        <v>448</v>
-      </c>
-      <c r="D77" t="s">
-        <v>339</v>
-      </c>
-      <c r="F77" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>342</v>
-      </c>
-      <c r="B78" t="s">
-        <v>338</v>
-      </c>
-      <c r="C78" t="s">
-        <v>461</v>
-      </c>
-      <c r="D78" t="s">
-        <v>339</v>
-      </c>
-      <c r="F78" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>343</v>
-      </c>
-      <c r="B79" t="s">
-        <v>344</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="C95" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>345</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B96" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E79" t="s">
+      <c r="C96" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F79" t="s">
+      <c r="D96" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B97" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>349</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B98" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C80" t="s">
-        <v>350</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C98" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E80" t="s">
-        <v>347</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="D98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B99" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>353</v>
       </c>
-      <c r="B81" t="s">
-        <v>350</v>
-      </c>
-      <c r="C81" t="s">
-        <v>449</v>
-      </c>
-      <c r="D81" t="s">
-        <v>351</v>
-      </c>
-      <c r="F81" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B100" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C100" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C82" t="s">
-        <v>355</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="D100" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E100" t="s">
+        <v>290</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="101" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>358</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B101" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C101" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D101" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>361</v>
       </c>
-      <c r="F83" t="s">
+      <c r="B102" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B103" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>363</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B104" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C104" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D104" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F84" t="s">
+    </row>
+    <row r="105" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B105" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B85" t="s">
-        <v>364</v>
-      </c>
-      <c r="C85" t="s">
-        <v>450</v>
-      </c>
-      <c r="D85" t="s">
-        <v>366</v>
-      </c>
-      <c r="F85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="C105" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>370</v>
       </c>
-      <c r="B86" t="s">
-        <v>364</v>
-      </c>
-      <c r="C86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D86" t="s">
-        <v>366</v>
-      </c>
-      <c r="F86" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B106" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>371</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B107" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C107" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E107" t="s">
         <v>373</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F107" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E87" t="s">
-        <v>367</v>
-      </c>
-      <c r="F87" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    </row>
+    <row r="108" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>375</v>
       </c>
-      <c r="B88" t="s">
-        <v>372</v>
-      </c>
-      <c r="C88" t="s">
-        <v>451</v>
-      </c>
-      <c r="D88" t="s">
-        <v>374</v>
-      </c>
-      <c r="F88" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B108" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B89" t="s">
-        <v>372</v>
-      </c>
-      <c r="C89" t="s">
-        <v>463</v>
-      </c>
-      <c r="D89" t="s">
-        <v>374</v>
-      </c>
-      <c r="F89" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="C108" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E108" t="s">
         <v>377</v>
       </c>
-      <c r="B90" t="s">
+      <c r="F108" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="109" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>379</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B109" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E90" t="s">
-        <v>367</v>
-      </c>
-      <c r="F90" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="C109" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B91" t="s">
-        <v>378</v>
-      </c>
-      <c r="C91" t="s">
-        <v>452</v>
-      </c>
-      <c r="D91" t="s">
-        <v>380</v>
-      </c>
-      <c r="F91" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="D109" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E109" t="s">
         <v>382</v>
       </c>
-      <c r="B92" t="s">
-        <v>378</v>
-      </c>
-      <c r="C92" t="s">
-        <v>464</v>
-      </c>
-      <c r="D92" t="s">
-        <v>380</v>
-      </c>
-      <c r="F92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="F109" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="110" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>384</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B110" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E93" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E110" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="F110" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B94" t="s">
-        <v>384</v>
-      </c>
-      <c r="C94" t="s">
-        <v>453</v>
-      </c>
-      <c r="D94" t="s">
-        <v>386</v>
-      </c>
-      <c r="F94" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>389</v>
-      </c>
-      <c r="B95" t="s">
-        <v>384</v>
-      </c>
-      <c r="C95" t="s">
-        <v>465</v>
-      </c>
-      <c r="D95" t="s">
-        <v>386</v>
-      </c>
-      <c r="F95" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>390</v>
-      </c>
-      <c r="B96" t="s">
-        <v>391</v>
-      </c>
-      <c r="C96" t="s">
-        <v>392</v>
-      </c>
-      <c r="D96" t="s">
-        <v>392</v>
-      </c>
-      <c r="E96" t="s">
-        <v>213</v>
-      </c>
-      <c r="F96" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>393</v>
-      </c>
-      <c r="B97" t="s">
-        <v>391</v>
-      </c>
-      <c r="C97" t="s">
-        <v>466</v>
-      </c>
-      <c r="D97" t="s">
-        <v>392</v>
-      </c>
-      <c r="F97" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>394</v>
-      </c>
-      <c r="B98" t="s">
-        <v>395</v>
-      </c>
-      <c r="C98" t="s">
-        <v>396</v>
-      </c>
-      <c r="D98" t="s">
-        <v>397</v>
-      </c>
-      <c r="E98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>399</v>
-      </c>
-      <c r="B99" t="s">
-        <v>395</v>
-      </c>
-      <c r="C99" t="s">
-        <v>454</v>
-      </c>
-      <c r="D99" t="s">
-        <v>397</v>
-      </c>
-      <c r="F99" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>400</v>
-      </c>
-      <c r="B100" t="s">
-        <v>401</v>
-      </c>
-      <c r="C100" t="s">
-        <v>402</v>
-      </c>
-      <c r="D100" t="s">
-        <v>403</v>
-      </c>
-      <c r="E100" t="s">
-        <v>325</v>
-      </c>
-      <c r="F100" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>405</v>
-      </c>
-      <c r="B101" t="s">
-        <v>406</v>
-      </c>
-      <c r="C101" t="s">
-        <v>406</v>
-      </c>
-      <c r="D101" t="s">
-        <v>407</v>
-      </c>
-      <c r="E101" t="s">
-        <v>33</v>
-      </c>
-      <c r="F101" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>409</v>
-      </c>
-      <c r="B102" t="s">
-        <v>406</v>
-      </c>
-      <c r="C102" t="s">
-        <v>455</v>
-      </c>
-      <c r="D102" t="s">
-        <v>407</v>
-      </c>
-      <c r="F102" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>410</v>
-      </c>
-      <c r="B103" t="s">
-        <v>406</v>
-      </c>
-      <c r="C103" t="s">
-        <v>467</v>
-      </c>
-      <c r="D103" t="s">
-        <v>407</v>
-      </c>
-      <c r="F103" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>411</v>
-      </c>
-      <c r="B104" t="s">
-        <v>412</v>
-      </c>
-      <c r="C104" t="s">
-        <v>413</v>
-      </c>
-      <c r="D104" t="s">
-        <v>414</v>
-      </c>
-      <c r="E104" t="s">
-        <v>33</v>
-      </c>
-      <c r="F104" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>416</v>
-      </c>
-      <c r="B105" t="s">
-        <v>417</v>
-      </c>
-      <c r="C105" t="s">
-        <v>417</v>
-      </c>
-      <c r="D105" t="s">
-        <v>418</v>
-      </c>
-      <c r="E105" t="s">
-        <v>49</v>
-      </c>
-      <c r="F105" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>420</v>
-      </c>
-      <c r="B106" t="s">
-        <v>417</v>
-      </c>
-      <c r="C106" t="s">
-        <v>456</v>
-      </c>
-      <c r="D106" t="s">
-        <v>418</v>
-      </c>
-      <c r="F106" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>421</v>
-      </c>
-      <c r="B107" t="s">
-        <v>422</v>
-      </c>
-      <c r="C107" t="s">
-        <v>422</v>
-      </c>
-      <c r="D107" t="s">
-        <v>423</v>
-      </c>
-      <c r="E107" t="s">
-        <v>424</v>
-      </c>
-      <c r="F107" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>426</v>
-      </c>
-      <c r="B108" t="s">
-        <v>427</v>
-      </c>
-      <c r="C108" t="s">
-        <v>427</v>
-      </c>
-      <c r="D108" t="s">
-        <v>428</v>
-      </c>
-      <c r="E108" t="s">
-        <v>429</v>
-      </c>
-      <c r="F108" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>431</v>
-      </c>
-      <c r="B109" t="s">
-        <v>432</v>
-      </c>
-      <c r="C109" t="s">
-        <v>433</v>
-      </c>
-      <c r="D109" t="s">
-        <v>434</v>
-      </c>
-      <c r="E109" t="s">
-        <v>435</v>
-      </c>
-      <c r="F109" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>437</v>
-      </c>
-      <c r="B110" t="s">
-        <v>438</v>
-      </c>
-      <c r="C110" t="s">
-        <v>438</v>
-      </c>
-      <c r="D110" t="s">
-        <v>439</v>
-      </c>
-      <c r="E110" t="s">
-        <v>440</v>
-      </c>
-      <c r="F110" t="s">
-        <v>441</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
+    <sortCondition ref="A1:A110"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/fwb_page/data/hows_life_dictionary.xlsx
+++ b/fwb_page/data/hows_life_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\cwb_page\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A6016-F75A-4372-AC54-F032DF3DB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A7D05-190C-438C-9C4E-DFAF26DBA5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="511">
   <si>
     <t>measure</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Household net adjusted disposable income</t>
   </si>
   <si>
-    <t>USD at 2015 PPPs, per capita</t>
-  </si>
-  <si>
     <t>OECD National Accounts</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Household median net wealth</t>
-  </si>
-  <si>
-    <t>USD at 2019 PPPs</t>
   </si>
   <si>
     <t>OECD wealth distribution database</t>
@@ -1561,6 +1555,15 @@
   </si>
   <si>
     <t>Satisfaction with personal relationships refers to the mean score of survey respondents who rate their satisfaction with their personal relationships on an 11-point scale, from 0 (not at all satisfied) to 10 (completely satisfied). The variable refers to the respondent’s opinion/feeling about the degree of satisfaction with his/her personal relationships. The respondent is expected to make a broad, reflective appraisal of all areas of his/her personal relationships (e.g. relatives, friends, colleagues from work etc.) in a particular point in time (these days). This indicator refers to individuals aged 16 or more, except for Canada (15 or more) and Mexico (18 or more). &lt;br&gt;&lt;br&gt;&lt;b&gt;Deprivation&lt;/b&gt; for this indicator refer to the percentage of people answering 4 or below. &lt;br&gt;&lt;br&gt;&lt;b&gt;Vertical inequality&lt;/b&gt; for this indicator is measured by the ratio of satisfaction with personal relationships scores of the top 20% (i.e. the quintile with the highest scores in satisfaction with personal relationships) relative to the bottom 20% (i.e. the quintile with the lowest scores in satisfaction with personal relationships).</t>
+  </si>
+  <si>
+    <t>USD at 2022 PPPs, per capita</t>
+  </si>
+  <si>
+    <t>USD at 2022 PPPs</t>
+  </si>
+  <si>
+    <t>USD at 2020 PPPs, per capita</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1948,2092 +1951,2092 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="261" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="261" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="290" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="377" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E34" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E36" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E36" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E42" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E43" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E44" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E45" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E47" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E51" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E52" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53" t="s">
-        <v>219</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="E55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="E56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E56" t="s">
-        <v>237</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E57" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E57" t="s">
-        <v>241</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E58" t="s">
-        <v>245</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E59" t="s">
         <v>247</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E59" t="s">
-        <v>249</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E60" t="s">
         <v>251</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E60" t="s">
-        <v>253</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E61" t="s">
-        <v>232</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E62" t="s">
-        <v>263</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E68" t="s">
         <v>270</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E68" t="s">
-        <v>272</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E70" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E71" t="s">
-        <v>284</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E72" t="s">
         <v>282</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E72" t="s">
-        <v>284</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E73" t="s">
-        <v>290</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E74" t="s">
-        <v>290</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" t="s">
         <v>297</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E75" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" t="s">
         <v>308</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E79" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>313</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E82" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E83" t="s">
         <v>319</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E83" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>321</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="B84" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="D84" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="E84" t="s">
         <v>324</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E84" t="s">
-        <v>326</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="C87" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="D90" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="F99" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E100" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="F103" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>361</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E104" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E107" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="F107" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E107" t="s">
-        <v>373</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E108" t="s">
         <v>375</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="F108" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E108" t="s">
-        <v>377</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="D109" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E109" t="s">
         <v>380</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E109" t="s">
-        <v>382</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="E110" t="s">
         <v>385</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E110" t="s">
-        <v>387</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>
